--- a/DATA_goal/Junction_Flooding_171.xlsx
+++ b/DATA_goal/Junction_Flooding_171.xlsx
@@ -465,7 +465,7 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -655,103 +655,103 @@
         <v>41603.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.78</v>
+        <v>2.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.77</v>
+        <v>2.08</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.19</v>
+        <v>2.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>1.59</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>147.12</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>28.07</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>15.86</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.65</v>
+        <v>0.77</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.43</v>
+        <v>2.64</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41603.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.81</v>
+        <v>1.08</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.76</v>
+        <v>0.78</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.19</v>
+        <v>1.72</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.05</v>
+        <v>0.6</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.23</v>
+        <v>0.32</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.27</v>
+        <v>0.43</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.68</v>
+        <v>0.47</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.75</v>
+        <v>0.38</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>52.22</v>
+        <v>5.22</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41603.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.98</v>
+        <v>1.7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>37.19</v>
+        <v>3.72</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.93</v>
+        <v>2.99</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>48.44</v>
+        <v>4.84</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.71</v>
+        <v>2.07</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.89</v>
+        <v>1.59</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.92</v>
+        <v>1.89</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>196.38</v>
+        <v>19.64</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>37.32</v>
+        <v>3.73</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.35</v>
+        <v>1.24</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.89</v>
+        <v>2.49</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.05</v>
+        <v>1.31</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.15</v>
+        <v>0.21</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.13</v>
+        <v>2.41</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>44</v>
+        <v>4.4</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.45</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41603.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.13</v>
+        <v>1.61</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>1.09</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>35.32</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>28.58</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>49.81</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>35.56</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>23.79</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>24.27</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>10.86</v>
-      </c>
       <c r="AD5" s="4" t="n">
-        <v>14.85</v>
+        <v>1.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.43</v>
+        <v>4.54</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.55</v>
+        <v>0.65</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41603.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>23.16</v>
+        <v>2.32</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>17.29</v>
+        <v>1.73</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>50.58</v>
+        <v>5.06</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>41.32</v>
+        <v>4.13</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>18.18</v>
+        <v>1.82</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>70.09999999999999</v>
+        <v>7.01</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>28.16</v>
+        <v>2.82</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>18.53</v>
+        <v>1.85</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>20.29</v>
+        <v>2.03</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>21.56</v>
+        <v>2.16</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.85</v>
+        <v>0.58</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>18.2</v>
+        <v>1.82</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>25.91</v>
+        <v>2.59</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>269.66</v>
+        <v>26.97</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>50.88</v>
+        <v>5.09</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>16.8</v>
+        <v>1.68</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>34.23</v>
+        <v>3.42</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>17.95</v>
+        <v>1.79</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>34.3</v>
+        <v>3.43</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>13.13</v>
+        <v>1.31</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>15.45</v>
+        <v>1.54</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>21.31</v>
+        <v>2.13</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>63.75</v>
+        <v>6.38</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>21</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41603.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="T7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41603.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>23.37</v>
+        <v>2.34</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>17.49</v>
+        <v>1.75</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>51</v>
+        <v>5.1</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>41.8</v>
+        <v>4.18</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>18.21</v>
+        <v>1.82</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>66.20999999999999</v>
+        <v>6.62</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>28.39</v>
+        <v>2.84</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.65</v>
+        <v>1.27</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>18.78</v>
+        <v>1.88</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>20.46</v>
+        <v>2.05</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>21.72</v>
+        <v>2.17</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>18.35</v>
+        <v>1.83</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>26.13</v>
+        <v>2.61</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>272.08</v>
+        <v>27.21</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>51.16</v>
+        <v>5.12</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>34.49</v>
+        <v>3.45</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>18.13</v>
+        <v>1.81</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.58</v>
+        <v>0.26</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>32.95</v>
+        <v>3.3</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>13.21</v>
+        <v>1.32</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>21.5</v>
+        <v>2.15</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>59.86</v>
+        <v>5.99</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>21.17</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41603.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>7.26</v>
+        <v>0.73</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>21.32</v>
+        <v>2.13</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>17.31</v>
+        <v>1.73</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>33.78</v>
+        <v>3.38</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
       <c r="R9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG9" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="S9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>109.56</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>3.96</v>
-      </c>
       <c r="AH9" s="4" t="n">
-        <v>8.85</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41603.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>14.07</v>
+        <v>1.41</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>30.73</v>
+        <v>3.07</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>25.12</v>
+        <v>2.51</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>10.94</v>
+        <v>1.09</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>42.58</v>
+        <v>4.26</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.55</v>
+        <v>0.35</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>161.02</v>
+        <v>16.1</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>30.88</v>
+        <v>3.09</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>20.78</v>
+        <v>2.08</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>20.72</v>
+        <v>2.07</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>12.95</v>
+        <v>1.3</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>38.6</v>
+        <v>3.86</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.75</v>
+        <v>0.58</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_171.xlsx
+++ b/DATA_goal/Junction_Flooding_171.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44852.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.08</v>
+        <v>40.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.28</v>
+        <v>32.82</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.8</v>
+        <v>47.99</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.74</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.1</v>
+        <v>20.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>22.15</v>
+        <v>221.55</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.18</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.76</v>
+        <v>27.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.43</v>
+        <v>24.31</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.13</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.3</v>
+        <v>13.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.56</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.26</v>
+        <v>42.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.65</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44852.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.33</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.56</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.53</v>
+        <v>35.29</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.86</v>
+        <v>28.58</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.85</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.98</v>
+        <v>49.78</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.64</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.12</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.8</v>
+        <v>18.02</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>18.73</v>
+        <v>187.25</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.58</v>
+        <v>35.78</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.38</v>
+        <v>23.75</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.34</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.42</v>
+        <v>24.17</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.05</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.65</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.53</v>
+        <v>45.28</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.54</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44852.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.11</v>
+        <v>21.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.42</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.59</v>
+        <v>45.87</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.75</v>
+        <v>37.47</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.64</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.39</v>
+        <v>63.92</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.7</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.4</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.93</v>
+        <v>19.34</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.48</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.4</v>
+        <v>14.03</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>24.45</v>
+        <v>244.48</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.63</v>
+        <v>46.25</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.1</v>
+        <v>30.98</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.21</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.11</v>
+        <v>31.09</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.13</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.23</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.8</v>
+        <v>57.97</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.56</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44852.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.3</v>
+        <v>12.97</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.81</v>
+        <v>28.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.29</v>
+        <v>22.91</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.21</v>
+        <v>42.15</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.16</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.3</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.67</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.72</v>
+        <v>147.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.85</v>
+        <v>28.47</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.9</v>
+        <v>19.01</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.93</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.01</v>
+        <v>20.06</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.83</v>
+        <v>38.34</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_171.xlsx
+++ b/DATA_goal/Junction_Flooding_171.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,28 +655,28 @@
         <v>44852.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.9</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.04</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.81</v>
+        <v>40.812</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.82</v>
+        <v>32.818</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.12</v>
+        <v>15.123</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>47.99</v>
+        <v>47.986</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>9.710000000000001</v>
@@ -685,19 +685,19 @@
         <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.08</v>
+        <v>16.076</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.74</v>
+        <v>16.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.83</v>
+        <v>4.827</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.99</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>12.85</v>
@@ -706,52 +706,52 @@
         <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>221.55</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
         <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.55</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.06</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.31</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.13</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.05</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.56</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.56</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.65</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44852.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.33</v>
+        <v>16.334</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.56</v>
+        <v>11.558</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.81</v>
+        <v>1.807</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>35.29</v>
+        <v>35.286</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>28.58</v>
+        <v>28.581</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.85</v>
+        <v>12.855</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>49.78</v>
+        <v>49.776</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>8.551</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.64</v>
+        <v>12.642</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.12</v>
+        <v>14.119</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.75</v>
+        <v>14.753</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.11</v>
+        <v>4.107</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.02</v>
+        <v>18.021</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11</v>
+        <v>10.999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.55</v>
+        <v>1.554</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.06</v>
+        <v>1.062</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>187.25</v>
+        <v>187.251</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>35.78</v>
+        <v>35.781</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>23.75</v>
+        <v>23.751</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.34</v>
+        <v>12.341</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.25</v>
+        <v>2.253</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.17</v>
+        <v>24.171</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>9.42</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.05</v>
+        <v>11.045</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.65</v>
+        <v>14.647</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>45.28</v>
+        <v>45.283</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.54</v>
+        <v>6.537</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.75</v>
+        <v>14.752</v>
       </c>
     </row>
     <row r="4">
@@ -863,97 +863,97 @@
         <v>44852.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.14</v>
+        <v>21.139</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.42</v>
+        <v>15.417</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.48</v>
+        <v>1.479</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>45.87</v>
+        <v>45.869</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>37.47</v>
+        <v>37.473</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.64</v>
+        <v>16.635</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>63.92</v>
+        <v>63.915</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>25.6</v>
+        <v>25.596</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.281</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>16.7</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.4</v>
+        <v>18.405</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.34</v>
+        <v>19.341</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.31</v>
+        <v>5.314</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.54</v>
+        <v>16.542</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>23.48</v>
+        <v>23.476</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.03</v>
+        <v>14.028</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.091</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.958</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>244.48</v>
+        <v>244.477</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>46.25</v>
+        <v>46.255</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.27</v>
+        <v>15.269</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>30.98</v>
+        <v>30.984</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.21</v>
+        <v>16.211</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.57</v>
+        <v>2.568</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>31.09</v>
+        <v>31.095</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.49</v>
+        <v>13.487</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.03</v>
+        <v>12.029</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.13</v>
+        <v>14.128</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.23</v>
+        <v>19.228</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>57.97</v>
+        <v>57.973</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>8.56</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>11.71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44852.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.67</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.74</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_171.xlsx
+++ b/DATA_goal/Junction_Flooding_171.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,10 +967,10 @@
         <v>44852.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.97</v>
+        <v>12.971</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.4</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.99</v>
@@ -979,91 +979,195 @@
         <v>28.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.91</v>
+        <v>22.909</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.21</v>
+        <v>10.208</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.15</v>
+        <v>42.149</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.9</v>
+        <v>6.904</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.16</v>
+        <v>10.157</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.3</v>
+        <v>11.304</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.86</v>
+        <v>11.862</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.26</v>
+        <v>3.262</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.39</v>
+        <v>14.394</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.67</v>
+        <v>8.673</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.785</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.613</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.2</v>
+        <v>147.196</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.47</v>
+        <v>28.471</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.01</v>
+        <v>19.011</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.93</v>
+        <v>9.927</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.64</v>
+        <v>1.637</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.06</v>
+        <v>20.058</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.41</v>
+        <v>7.414</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>8.701000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>11.8</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.34</v>
+        <v>38.342</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.22</v>
+        <v>5.223</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.71</v>
+        <v>11.715</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44852.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_171.xlsx
+++ b/DATA_goal/Junction_Flooding_171.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,10 +967,10 @@
         <v>44852.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.971</v>
+        <v>12.97</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.401999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.99</v>
@@ -979,195 +979,91 @@
         <v>28.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.909</v>
+        <v>22.91</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.208</v>
+        <v>10.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.149</v>
+        <v>42.15</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.707</v>
+        <v>15.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.904</v>
+        <v>6.9</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.157</v>
+        <v>10.16</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.304</v>
+        <v>11.3</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.862</v>
+        <v>11.86</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.262</v>
+        <v>3.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.151</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.394</v>
+        <v>14.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.673</v>
+        <v>8.67</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.785</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.613</v>
+        <v>0.61</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.196</v>
+        <v>147.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.471</v>
+        <v>28.47</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.011</v>
+        <v>19.01</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.927</v>
+        <v>9.93</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.637</v>
+        <v>1.64</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.058</v>
+        <v>20.06</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.276</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.414</v>
+        <v>7.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.701000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>11.8</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.342</v>
+        <v>38.34</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.223</v>
+        <v>5.22</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.715</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44852.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.67</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.74</v>
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>
